--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.84892081605234</v>
+        <v>89.92953125852654</v>
       </c>
       <c r="D2" t="n">
-        <v>1.060901468800117</v>
+        <v>0.9560671319049925</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8841214816553</v>
+        <v>88.83000324376457</v>
       </c>
       <c r="D3" t="n">
-        <v>1.032195499883452</v>
+        <v>1.09168475781386</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.24604056984261</v>
+        <v>87.91617482082803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9387058538371135</v>
+        <v>1.093522217766789</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.05726439203643</v>
+        <v>86.95130080760129</v>
       </c>
       <c r="D5" t="n">
-        <v>1.036617326708504</v>
+        <v>0.9858123077305476</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.81228346713633</v>
+        <v>85.93866591643662</v>
       </c>
       <c r="D6" t="n">
-        <v>1.113302784444767</v>
+        <v>1.125292385778424</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89229700744167</v>
+        <v>85.06584065832432</v>
       </c>
       <c r="D7" t="n">
-        <v>1.131978880315302</v>
+        <v>0.9810056369389951</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.95302018518501</v>
+        <v>84.01322861753327</v>
       </c>
       <c r="D8" t="n">
-        <v>1.029016814978805</v>
+        <v>1.074292496147149</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.95636008462681</v>
+        <v>82.86983877951901</v>
       </c>
       <c r="D9" t="n">
-        <v>1.19920646997837</v>
+        <v>0.9690918338712443</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.92041828672208</v>
+        <v>81.96236835311544</v>
       </c>
       <c r="D10" t="n">
-        <v>1.172758478088828</v>
+        <v>1.175079992597986</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.195999805326</v>
+        <v>80.88709023111848</v>
       </c>
       <c r="D11" t="n">
-        <v>1.183626756198735</v>
+        <v>1.208059553619678</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.85806420888561</v>
+        <v>79.94610955352226</v>
       </c>
       <c r="D12" t="n">
-        <v>1.076437038680181</v>
+        <v>1.061438234172633</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.02861949257024</v>
+        <v>79.15183717316386</v>
       </c>
       <c r="D13" t="n">
-        <v>1.076547163464193</v>
+        <v>1.179888836494029</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.85247915771991</v>
+        <v>77.96166331199565</v>
       </c>
       <c r="D14" t="n">
-        <v>1.273812712667736</v>
+        <v>0.9529676433440792</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.9281938105032</v>
+        <v>77.03192064630724</v>
       </c>
       <c r="D15" t="n">
-        <v>1.22312062634166</v>
+        <v>1.167943219518364</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92951551812968</v>
+        <v>76.00447921387615</v>
       </c>
       <c r="D16" t="n">
-        <v>1.188587718923958</v>
+        <v>1.006048025621418</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.02252077872755</v>
+        <v>74.8028251487565</v>
       </c>
       <c r="D17" t="n">
-        <v>1.293190148975087</v>
+        <v>1.119241340260201</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.07320760799013</v>
+        <v>74.01633726405225</v>
       </c>
       <c r="D18" t="n">
-        <v>1.353640193834377</v>
+        <v>1.107083432667583</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.90729566581777</v>
+        <v>72.99839086063589</v>
       </c>
       <c r="D19" t="n">
-        <v>1.436156601273198</v>
+        <v>1.111930635421754</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.14353833506325</v>
+        <v>71.89886790348052</v>
       </c>
       <c r="D20" t="n">
-        <v>1.33902200985813</v>
+        <v>1.428070293489448</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.76470140690893</v>
+        <v>71.07184000436814</v>
       </c>
       <c r="D21" t="n">
-        <v>1.295313539845383</v>
+        <v>1.37103721586851</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.93281645285876</v>
+        <v>69.9183721129658</v>
       </c>
       <c r="D22" t="n">
-        <v>1.199026547712628</v>
+        <v>1.249541962968593</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00652257044875</v>
+        <v>68.8934932486609</v>
       </c>
       <c r="D23" t="n">
-        <v>1.349774451389955</v>
+        <v>1.374436942111682</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9923682392735</v>
+        <v>68.03627962985455</v>
       </c>
       <c r="D24" t="n">
-        <v>1.437277371992818</v>
+        <v>1.289870297081267</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.03392082560397</v>
+        <v>66.53335748041583</v>
       </c>
       <c r="D25" t="n">
-        <v>1.373466243788925</v>
+        <v>1.343082835310887</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.89743528530116</v>
+        <v>65.99053870263026</v>
       </c>
       <c r="D26" t="n">
-        <v>1.374881713657004</v>
+        <v>1.326975259303542</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98621336097523</v>
+        <v>65.01198023725942</v>
       </c>
       <c r="D27" t="n">
-        <v>1.33984409474713</v>
+        <v>1.196489839352542</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.16772119033929</v>
+        <v>64.17239308174727</v>
       </c>
       <c r="D28" t="n">
-        <v>1.48030610944558</v>
+        <v>1.458844749948641</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.86490885444273</v>
+        <v>63.09883527021705</v>
       </c>
       <c r="D29" t="n">
-        <v>1.410603154901487</v>
+        <v>1.511083507613163</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.91547016202129</v>
+        <v>61.84132200016553</v>
       </c>
       <c r="D30" t="n">
-        <v>1.502538589979618</v>
+        <v>1.624105190037784</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.0309830463795</v>
+        <v>60.99991858490782</v>
       </c>
       <c r="D31" t="n">
-        <v>1.326267247168046</v>
+        <v>1.539591601793292</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97581115383666</v>
+        <v>60.11587920765614</v>
       </c>
       <c r="D32" t="n">
-        <v>1.395245267057523</v>
+        <v>1.404489110286829</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.10545947082867</v>
+        <v>59.0975551453012</v>
       </c>
       <c r="D33" t="n">
-        <v>1.482288131626233</v>
+        <v>1.566024750468632</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.26905519120433</v>
+        <v>57.92644034945143</v>
       </c>
       <c r="D34" t="n">
-        <v>1.659367563726816</v>
+        <v>1.339343757738837</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.76596297804434</v>
+        <v>57.00621851367318</v>
       </c>
       <c r="D35" t="n">
-        <v>1.344733015338178</v>
+        <v>1.39051139282089</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0290928237111</v>
+        <v>55.73518351678788</v>
       </c>
       <c r="D36" t="n">
-        <v>1.49403302328424</v>
+        <v>1.363954666181055</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.002644531807</v>
+        <v>55.12328861107999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.492582085559289</v>
+        <v>1.508268466182757</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.92077702617593</v>
+        <v>53.95069308776124</v>
       </c>
       <c r="D38" t="n">
-        <v>1.632233844474885</v>
+        <v>1.467551812647088</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.84053324855108</v>
+        <v>52.9797589487584</v>
       </c>
       <c r="D39" t="n">
-        <v>1.780876524810592</v>
+        <v>1.708727859696666</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.86587512871348</v>
+        <v>51.93013168089271</v>
       </c>
       <c r="D40" t="n">
-        <v>1.319785749381716</v>
+        <v>1.737227254795506</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.88001569502045</v>
+        <v>50.96614947964566</v>
       </c>
       <c r="D41" t="n">
-        <v>1.511613139088358</v>
+        <v>1.423173225574842</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.86050332348645</v>
+        <v>50.01846089891726</v>
       </c>
       <c r="D42" t="n">
-        <v>1.68915787860995</v>
+        <v>1.704347267583509</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.04713597606916</v>
+        <v>48.8323923005411</v>
       </c>
       <c r="D43" t="n">
-        <v>1.569290620721487</v>
+        <v>1.455106267978291</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.10521606836342</v>
+        <v>47.8239034740543</v>
       </c>
       <c r="D44" t="n">
-        <v>1.695780056359619</v>
+        <v>1.727505271412103</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.80450953280886</v>
+        <v>46.87528357889619</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4672616525936</v>
+        <v>1.729460614028189</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03922572083027</v>
+        <v>45.71582152323781</v>
       </c>
       <c r="D46" t="n">
-        <v>1.736039899296751</v>
+        <v>1.7922559859411</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.88751680137493</v>
+        <v>45.14897831739123</v>
       </c>
       <c r="D47" t="n">
-        <v>1.929402862501638</v>
+        <v>1.577358927627183</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.9534639400546</v>
+        <v>43.61858664046058</v>
       </c>
       <c r="D48" t="n">
-        <v>1.707315781004063</v>
+        <v>1.907479831925921</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99854274846219</v>
+        <v>43.1621652967139</v>
       </c>
       <c r="D49" t="n">
-        <v>1.683265395381918</v>
+        <v>1.623438218788614</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.79327966139119</v>
+        <v>42.05342905651047</v>
       </c>
       <c r="D50" t="n">
-        <v>1.820593862548142</v>
+        <v>1.680634666073645</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97630779710591</v>
+        <v>40.78960867765463</v>
       </c>
       <c r="D51" t="n">
-        <v>1.672243395984873</v>
+        <v>1.824703184294665</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.81170162061985</v>
+        <v>40.3116327448939</v>
       </c>
       <c r="D52" t="n">
-        <v>1.8241053242579</v>
+        <v>1.667298625266068</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10655478691242</v>
+        <v>39.03456613933135</v>
       </c>
       <c r="D53" t="n">
-        <v>1.796369563000989</v>
+        <v>2.129920397746715</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.95844242199561</v>
+        <v>37.98362812072041</v>
       </c>
       <c r="D54" t="n">
-        <v>1.771774694028305</v>
+        <v>1.831497601133909</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99832268659409</v>
+        <v>37.02933879876703</v>
       </c>
       <c r="D55" t="n">
-        <v>1.832168879540666</v>
+        <v>2.26924156562583</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.67619646088575</v>
+        <v>35.78685792023559</v>
       </c>
       <c r="D56" t="n">
-        <v>1.701762220327507</v>
+        <v>1.796975827759064</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.94052682233935</v>
+        <v>34.90617474069749</v>
       </c>
       <c r="D57" t="n">
-        <v>1.666355937634892</v>
+        <v>2.077134259547536</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.00429455955201</v>
+        <v>33.99706443927901</v>
       </c>
       <c r="D58" t="n">
-        <v>1.963124851953404</v>
+        <v>2.042641518309993</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.82479390981914</v>
+        <v>32.83601298207328</v>
       </c>
       <c r="D59" t="n">
-        <v>1.869328971704502</v>
+        <v>2.170893085716655</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.77538075803559</v>
+        <v>31.56035677637705</v>
       </c>
       <c r="D60" t="n">
-        <v>1.588246647130498</v>
+        <v>2.017585562061939</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.20649941607629</v>
+        <v>30.75567691663236</v>
       </c>
       <c r="D61" t="n">
-        <v>2.06277125741875</v>
+        <v>1.920672397454502</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.47976567406313</v>
+        <v>29.76771584142882</v>
       </c>
       <c r="D62" t="n">
-        <v>1.851297041937125</v>
+        <v>1.879810907452977</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.02812935894669</v>
+        <v>29.06296997724257</v>
       </c>
       <c r="D63" t="n">
-        <v>2.040823566005424</v>
+        <v>1.904156299302721</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.72421640252178</v>
+        <v>28.00910275705519</v>
       </c>
       <c r="D64" t="n">
-        <v>2.07985124660035</v>
+        <v>1.924126775481733</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.26982695014195</v>
+        <v>27.32426136233858</v>
       </c>
       <c r="D65" t="n">
-        <v>1.903232163951222</v>
+        <v>1.741907149993632</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.05388577082809</v>
+        <v>26.0166963158871</v>
       </c>
       <c r="D66" t="n">
-        <v>1.874022350612459</v>
+        <v>1.908508366141538</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.22581647586266</v>
+        <v>25.26809008625842</v>
       </c>
       <c r="D67" t="n">
-        <v>2.211235053938854</v>
+        <v>2.090814659463895</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.50653754002823</v>
+        <v>23.81285278186559</v>
       </c>
       <c r="D68" t="n">
-        <v>2.126178304501738</v>
+        <v>2.311819797972345</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.26875848457743</v>
+        <v>22.74489696530457</v>
       </c>
       <c r="D69" t="n">
-        <v>2.122435656555162</v>
+        <v>2.077631547923084</v>
       </c>
     </row>
   </sheetData>
